--- a/engineering_basics/pf/pf.xlsx
+++ b/engineering_basics/pf/pf.xlsx
@@ -20,8 +20,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Based on the fast identity matrix creation code in https://www.hpmuseum.org/cgi-sys/cgiwrap/hpmuseum/archv016.cgi?read=91641</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="167">
   <si>
     <t xml:space="preserve">Line Num</t>
   </si>
@@ -35,6 +57,9 @@
     <t xml:space="preserve">Stack</t>
   </si>
   <si>
+    <t xml:space="preserve">Partial Fraction Main (see user’s guide for A matrix format)</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
@@ -50,13 +75,586 @@
     <t xml:space="preserve">Comment</t>
   </si>
   <si>
+    <t xml:space="preserve">42 21 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Convolution matrix subroutine (populate matrix with binomial (x-x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">45 23 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL DIM A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get size of array A containing the num and dem of the fraction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force a zero in x-reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 16 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO MATRIX C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store 0 in all elements of C (assumes a square matric of arbitrary size C was created before GSB call)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 16 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATRIX 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initialize matrix indexing registers: R0 (rows), R1(cols)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need to make the diagnal all 1s so start by putting one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 13 u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uSTO C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store 1 in C(1,1) and auto increment indexing via user mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label for out loop for the remainder of the elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Load root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of the binomial to be convolved (stored in R.5)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">44 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">in A(n,n+1) – with no auto-increment of indeces</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">x&lt;&gt;y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swap to get the 1 in y-register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 40 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO+ 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand-increment the row index (col index already incremented in instruction before Label 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store the 1 along diagonal – Once we store last row/col, calculator automatically skips next line (nice feature!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTO 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go back to top of loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return (stack state shown here is after last iteration)</t>
+  </si>
+  <si>
     <t xml:space="preserve">42 21 11</t>
   </si>
   <si>
-    <t xml:space="preserve">LBL 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">LBL A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need a square matrix of size cols x cols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 23 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIM C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need a square matrix of size cols x cols for convoution – it will be initialized inside Prog 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 23 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIM E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need a square matrix of size cols x cols to store system of equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to build the register for using ISG instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 23 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIM B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.cols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 .7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 .8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inner loop counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 .9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outter loop counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get index…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 16 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO MATRIX B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… by stripping fractional part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get A(2,m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set R0/R1 to first element – THIS WILL BE JUMPING POINT WHEN REPEATED ROOT HAPPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store A(2,n) in B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieve the next root A(2,n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 43 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL g A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get xn = A(2,n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 .5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid processing when n=m (root of interest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If n-m = 0, then set xn to 0 (reusing the result as value copied into xn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSB 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get C matrix ready for multiplication with B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 16 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL MATRIX B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do polynomial multiply via convolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 16 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL MATRIX C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULT D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 16 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL MATRIX D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B will be created via iterations so set B = D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 6 .8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISG .8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if we need to do another iteration, otherwise keep rolling after jumping one instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTO 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy B into next row of E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get loop count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 .6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set R.6 to loop over B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 43 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL g B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 15 u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uSTO E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 6 .6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISG .6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy to avoid skipping ISG insturction when writing in last element of E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTO 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 6 .9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISG .9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTO 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 16 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL MATRIX A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 16 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATRIX 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 16 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL MATRIX E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULT B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 23 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL DIM D</t>
   </si>
 </sst>
 </file>
@@ -68,12 +666,11 @@
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -188,6 +785,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -225,6 +828,33 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -232,25 +862,23 @@
       <charset val="1"/>
     </font>
     <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="21">
@@ -305,7 +933,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF33CCCC"/>
-        <bgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF00B8FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -370,12 +998,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor rgb="FF00B8FF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -492,9 +1120,9 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -514,7 +1142,14 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -651,32 +1286,56 @@
     <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="15" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="18" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,59 +1343,55 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="18" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="18" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="19" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="20" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="20" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="20" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -824,7 +1479,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF00B8FF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -964,441 +1619,2235 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="77.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="5" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="126.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="B8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="B13" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="C43" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="C84" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+      <c r="G93" s="0"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0"/>
+      <c r="B94" s="0"/>
+      <c r="C94" s="0"/>
+      <c r="D94" s="0"/>
+      <c r="E94" s="0"/>
+      <c r="F94" s="0"/>
+      <c r="G94" s="0"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0"/>
+      <c r="B95" s="0"/>
+      <c r="C95" s="0"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0"/>
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0"/>
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="19"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0"/>
+      <c r="B98" s="0"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="0"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="0"/>
+      <c r="G98" s="0"/>
+      <c r="H98" s="19"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="19"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="19"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6"/>
+      <c r="B102" s="7"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="19"/>
+    </row>
+    <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="19"/>
+    </row>
+    <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="19"/>
+    </row>
+    <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="19"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="19"/>
+    </row>
+    <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="19"/>
+    </row>
+    <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="19"/>
+    </row>
+    <row r="109" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="19"/>
+    </row>
+    <row r="110" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="19"/>
+    </row>
+    <row r="111" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="19"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="19"/>
+    </row>
+    <row r="113" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="19"/>
+    </row>
+    <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="19"/>
+    </row>
+    <row r="115" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="19"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="19"/>
+    </row>
+    <row r="117" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="19"/>
+    </row>
+    <row r="118" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="19"/>
+    </row>
+    <row r="119" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="19"/>
+    </row>
+    <row r="120" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="19"/>
+    </row>
+    <row r="121" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="19"/>
+    </row>
+    <row r="122" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="19"/>
+    </row>
+    <row r="123" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="19"/>
+    </row>
+    <row r="124" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="19"/>
+    </row>
+    <row r="125" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="19"/>
+    </row>
+    <row r="126" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="19"/>
+    </row>
+    <row r="127" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="19"/>
+    </row>
+    <row r="128" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="19"/>
+    </row>
+    <row r="130" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="19"/>
+    </row>
+    <row r="131" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="19"/>
+    </row>
+    <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H134" s="10"/>
+    </row>
+    <row r="135" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H136" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1409,11 +3858,12 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1430,64 +3880,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="55.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="87.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="55.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="87.08"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="17"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/engineering_basics/pf/pf.xlsx
+++ b/engineering_basics/pf/pf.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Partial Fraction Instructions" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Program Definitions" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Partial Fraction Instructions_2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Partial Fraction Instructions-1" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Program Definitions" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -42,8 +44,54 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Based on the fast identity matrix creation code in https://www.hpmuseum.org/cgi-sys/cgiwrap/hpmuseum/archv016.cgi?read=91641</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Based on the fast identity matrix creation code in https://www.hpmuseum.org/cgi-sys/cgiwrap/hpmuseum/archv016.cgi?read=91641</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="227">
   <si>
     <t xml:space="preserve">Line Num</t>
   </si>
@@ -188,6 +236,7 @@
         <sz val="10"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x</t>
     </r>
@@ -197,6 +246,7 @@
         <sz val="10"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n</t>
     </r>
@@ -209,15 +259,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Load root </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">x</t>
+      <t xml:space="preserve">Load root x</t>
     </r>
     <r>
       <rPr>
@@ -225,6 +267,7 @@
         <sz val="10"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n</t>
     </r>
@@ -252,15 +295,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Store </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">x</t>
+      <t xml:space="preserve">Store x</t>
     </r>
     <r>
       <rPr>
@@ -268,6 +303,7 @@
         <sz val="10"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n </t>
     </r>
@@ -369,12 +405,15 @@
     <t xml:space="preserve">*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.cols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.cols</t>
   </si>
   <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
     <t xml:space="preserve">44 .7</t>
   </si>
   <si>
@@ -405,9 +444,6 @@
     <t xml:space="preserve">LBL 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Get index…</t>
-  </si>
-  <si>
     <t xml:space="preserve">44 16 12</t>
   </si>
   <si>
@@ -438,6 +474,54 @@
     <t xml:space="preserve">RCL .7</t>
   </si>
   <si>
+    <t xml:space="preserve">44 .2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.cols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 .4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO .4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 30 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x&gt;y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSB 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">42 21 3</t>
   </si>
   <si>
@@ -453,12 +537,6 @@
     <t xml:space="preserve">RCL .8</t>
   </si>
   <si>
-    <t xml:space="preserve">43 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INT</t>
-  </si>
-  <si>
     <t xml:space="preserve">45 43 11</t>
   </si>
   <si>
@@ -474,12 +552,6 @@
     <t xml:space="preserve">STO .5</t>
   </si>
   <si>
-    <t xml:space="preserve">45 .9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCL .9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avoid processing when n=m (root of interest)</t>
   </si>
   <si>
@@ -492,6 +564,12 @@
     <t xml:space="preserve">If n-m = 0, then set xn to 0 (reusing the result as value copied into xn)</t>
   </si>
   <si>
+    <t xml:space="preserve">32 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSB 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">32 1</t>
   </si>
   <si>
@@ -516,7 +594,7 @@
     <t xml:space="preserve">RCL MATRIX C</t>
   </si>
   <si>
-    <t xml:space="preserve">42 21 14</t>
+    <t xml:space="preserve">42 26 14</t>
   </si>
   <si>
     <t xml:space="preserve">RESULT D</t>
@@ -642,7 +720,7 @@
     <t xml:space="preserve">RCL MATRIX E</t>
   </si>
   <si>
-    <t xml:space="preserve">42 21 12</t>
+    <t xml:space="preserve">42 26 12</t>
   </si>
   <si>
     <t xml:space="preserve">RESULT B</t>
@@ -655,6 +733,144 @@
   </si>
   <si>
     <t xml:space="preserve">RCL DIM D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 4 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A(2,m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A(2,m-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 30 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x=y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 5 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 6 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F? 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 43 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO g B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 30 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x&lt;y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 .4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCL .4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 4 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 30 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X!=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSB 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 5 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 40 .2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO+ .2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 6 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F? 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 21 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 16 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STO MATRIX E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_down</t>
   </si>
 </sst>
 </file>
@@ -666,7 +882,7 @@
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -862,12 +1078,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -880,8 +1090,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,13 +1115,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFF9966"/>
       </patternFill>
     </fill>
     <fill>
@@ -915,7 +1139,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -927,13 +1151,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF33CCCC"/>
-        <bgColor rgb="FF00B8FF"/>
+        <bgColor rgb="FF00DCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -987,7 +1211,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFE6E64C"/>
       </patternFill>
     </fill>
     <fill>
@@ -999,7 +1223,49 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B8FF"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF00DCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00DCFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E64C"/>
+        <bgColor rgb="FFFFD320"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD320"/>
+        <bgColor rgb="FFE6E64C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
@@ -1302,16 +1568,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1347,15 +1613,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1363,32 +1621,72 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="20" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="20" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="21" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="22" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="23" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="24" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="25" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="26" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1454,7 +1752,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF00B8FF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
@@ -1470,27 +1768,27 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFE6E64C"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B8FF"/>
+      <rgbColor rgb="FF00DCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFF9966"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1619,10 +1917,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1711,7 +2009,7 @@
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1738,7 +2036,7 @@
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="9" t="n">
@@ -1903,7 +2201,7 @@
       <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="9" t="n">
@@ -1930,7 +2228,7 @@
       <c r="C12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E12" s="9" t="n">
@@ -1960,7 +2258,7 @@
       <c r="D13" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1987,7 +2285,7 @@
       <c r="D14" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -2014,7 +2312,7 @@
       <c r="D15" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -2041,7 +2339,7 @@
       <c r="D16" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -2061,22 +2359,22 @@
       <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2137,7 +2435,7 @@
       <c r="B20" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2164,7 +2462,7 @@
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -2191,7 +2489,7 @@
       <c r="B22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -2216,7 +2514,7 @@
       <c r="B23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="9" t="n">
@@ -2394,10 +2692,18 @@
       <c r="C30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,13 +2711,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>16</v>
@@ -2429,13 +2735,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>16</v>
@@ -2447,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,13 +2761,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>16</v>
@@ -2473,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,13 +2787,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>16</v>
@@ -2507,15 +2813,23 @@
       <c r="B35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="17" t="n">
+      <c r="C35" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10" t="s">
-        <v>83</v>
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,13 +2839,21 @@
       <c r="B36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" s="10" t="s">
         <v>86</v>
       </c>
@@ -2543,13 +2865,21 @@
       <c r="B37" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" s="10" t="s">
         <v>87</v>
       </c>
@@ -2561,13 +2891,21 @@
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="D38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" s="10" t="s">
         <v>88</v>
       </c>
@@ -2579,13 +2917,21 @@
       <c r="B39" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="D39" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" s="10" t="s">
         <v>91</v>
       </c>
@@ -2597,13 +2943,21 @@
       <c r="B40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,65 +2965,95 @@
         <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="C41" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="B42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="B43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="D44" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="E44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="H44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,34 +3063,46 @@
       <c r="B45" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10" t="s">
-        <v>86</v>
-      </c>
+      <c r="D45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="E46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -2715,16 +3111,22 @@
       <c r="B47" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="D47" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -2733,69 +3135,63 @@
       <c r="B48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>12</v>
+      <c r="B50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>110</v>
+      <c r="B51" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,35 +3199,33 @@
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +3235,7 @@
       <c r="B54" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="9"/>
@@ -2859,7 +3253,7 @@
       <c r="B55" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D55" s="9"/>
@@ -2867,7 +3261,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,28 +3269,28 @@
         <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>121</v>
+        <v>96</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="10" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>70</v>
+      <c r="B57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -2910,18 +3304,18 @@
       <c r="A58" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>123</v>
+      <c r="B58" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="10" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,17 +3323,17 @@
         <v>57</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>85</v>
+        <v>121</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="10" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,17 +3341,17 @@
         <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="10" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,10 +3359,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -2981,17 +3375,17 @@
         <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,17 +3393,17 @@
         <v>61</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>100</v>
+        <v>129</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="10" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,10 +3411,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="17" t="s">
         <v>132</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -3034,11 +3428,11 @@
       <c r="A65" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" s="17" t="n">
-        <v>1</v>
+      <c r="B65" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -3052,11 +3446,11 @@
       <c r="A66" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>134</v>
+      <c r="B66" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -3071,17 +3465,17 @@
         <v>65</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>93</v>
+        <v>136</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3089,17 +3483,17 @@
         <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>137</v>
+        <v>84</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="10" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,24 +3503,26 @@
       <c r="B69" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
+      <c r="H69" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" s="17" t="n">
-        <v>1</v>
+      <c r="B70" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -3139,33 +3535,35 @@
         <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>142</v>
+        <v>96</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
+      <c r="H71" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>144</v>
+        <v>99</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="10" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3175,24 +3573,26 @@
       <c r="B73" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="10"/>
+      <c r="H73" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -3209,7 +3609,7 @@
       <c r="B75" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D75" s="9"/>
@@ -3217,7 +3617,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="10" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,17 +3625,17 @@
         <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>151</v>
+        <v>92</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="10" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,17 +3643,17 @@
         <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="10" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,46 +3661,42 @@
         <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>157</v>
+      <c r="B79" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -3313,26 +3709,28 @@
         <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="10"/>
+      <c r="H81" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C82" s="17" t="s">
         <v>159</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -3344,107 +3742,119 @@
       <c r="A83" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>163</v>
+      <c r="B83" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="11" t="n">
+        <v>0</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="10"/>
+      <c r="H83" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>164</v>
+      <c r="B84" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="10"/>
+      <c r="H84" s="10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="10"/>
+      <c r="H85" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="10"/>
+      <c r="H86" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>116</v>
+        <v>168</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="10"/>
+      <c r="H87" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>159</v>
+        <v>170</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="10"/>
+      <c r="H88" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -3457,10 +3867,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>66</v>
+        <v>174</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -3473,10 +3883,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>116</v>
+        <v>172</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>173</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -3489,10 +3899,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>52</v>
+        <v>176</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -3501,354 +3911,1027 @@
       <c r="H92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0"/>
-      <c r="B93" s="0"/>
-      <c r="C93" s="0"/>
-      <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
-      <c r="F93" s="0"/>
-      <c r="G93" s="0"/>
+      <c r="A93" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0"/>
-      <c r="B94" s="0"/>
-      <c r="C94" s="0"/>
-      <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
-      <c r="F94" s="0"/>
-      <c r="G94" s="0"/>
+      <c r="A94" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0"/>
-      <c r="C95" s="0"/>
-      <c r="D95" s="0"/>
-      <c r="E95" s="0"/>
-      <c r="F95" s="0"/>
-      <c r="G95" s="0"/>
+      <c r="A95" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
+      <c r="A96" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="0"/>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
-      <c r="H97" s="19"/>
+      <c r="A97" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0"/>
-      <c r="B98" s="0"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="0"/>
-      <c r="E98" s="0"/>
-      <c r="F98" s="0"/>
-      <c r="G98" s="0"/>
-      <c r="H98" s="19"/>
+      <c r="A98" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="19"/>
+      <c r="A99" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="19"/>
+      <c r="A100" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="19"/>
+      <c r="A101" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="19"/>
+      <c r="A102" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="19"/>
+      <c r="A103" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="19"/>
+      <c r="A104" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="19"/>
+      <c r="A105" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="19"/>
+      <c r="A106" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="16"/>
     </row>
     <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="19"/>
+      <c r="A107" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107" s="16"/>
     </row>
     <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="19"/>
+      <c r="A108" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G108" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="19"/>
+      <c r="A109" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="19"/>
+      <c r="A110" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="19"/>
+      <c r="A111" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="19"/>
+      <c r="A112" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H112" s="16"/>
     </row>
     <row r="113" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="19"/>
+      <c r="A113" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F113" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H113" s="16"/>
     </row>
     <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="19"/>
+      <c r="A114" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G114" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" s="16"/>
     </row>
     <row r="115" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="19"/>
+      <c r="A115" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="16"/>
     </row>
     <row r="116" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="19"/>
+      <c r="A116" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
+      <c r="H116" s="16"/>
     </row>
     <row r="117" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="19"/>
+      <c r="A117" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
+      <c r="H117" s="16"/>
     </row>
     <row r="118" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="19"/>
+      <c r="A118" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="0"/>
+      <c r="E118" s="0"/>
+      <c r="F118" s="0"/>
+      <c r="G118" s="0"/>
+      <c r="H118" s="16"/>
     </row>
     <row r="119" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="19"/>
+      <c r="A119" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" s="0"/>
+      <c r="E119" s="0"/>
+      <c r="F119" s="0"/>
+      <c r="G119" s="0"/>
+      <c r="H119" s="16"/>
     </row>
     <row r="120" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="19"/>
+      <c r="A120" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D120" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="16"/>
     </row>
     <row r="121" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="19"/>
+      <c r="A121" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="16"/>
     </row>
     <row r="122" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="19"/>
+      <c r="A122" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="16"/>
     </row>
     <row r="123" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="19"/>
+      <c r="A123" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="16"/>
     </row>
     <row r="124" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="19"/>
+      <c r="A124" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D124" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="18"/>
+      <c r="H124" s="16"/>
     </row>
     <row r="125" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="19"/>
+      <c r="A125" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="19"/>
+      <c r="A126" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F126" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="19"/>
+      <c r="A127" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E127" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" s="16"/>
     </row>
     <row r="128" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="19"/>
+      <c r="A128" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E128" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" s="16"/>
     </row>
     <row r="129" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H129" s="19"/>
+      <c r="A129" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" s="16"/>
     </row>
     <row r="130" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H130" s="19"/>
+      <c r="A130" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E130" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" s="16"/>
     </row>
     <row r="131" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H131" s="19"/>
+      <c r="A131" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" s="16"/>
     </row>
     <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H132" s="10"/>
+      <c r="A132" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" s="16"/>
     </row>
     <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H133" s="10"/>
+      <c r="A133" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="16"/>
     </row>
     <row r="134" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H134" s="10"/>
+      <c r="A134" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="16"/>
     </row>
     <row r="135" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H135" s="10"/>
+      <c r="A135" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="16"/>
     </row>
     <row r="136" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H136" s="10"/>
-    </row>
+      <c r="A136" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="16"/>
+    </row>
+    <row r="138" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="16"/>
+    </row>
+    <row r="140" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="16"/>
+    </row>
+    <row r="143" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="144" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="16"/>
+    </row>
+    <row r="145" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="16"/>
+    </row>
+    <row r="146" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="18"/>
+      <c r="H146" s="16"/>
+    </row>
+    <row r="147" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="18"/>
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="18"/>
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H149" s="10"/>
+    </row>
+    <row r="150" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H150" s="10"/>
+    </row>
+    <row r="151" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="10"/>
+    </row>
+    <row r="152" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H153" s="10"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -3872,72 +4955,6320 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C144" activeCellId="0" sqref="C144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="126.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="2" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B65" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B73" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B78" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B92" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B104" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" s="11"/>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B108" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G108" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B111" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B112" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F113" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G114" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D118" s="0"/>
+      <c r="E118" s="0"/>
+      <c r="F118" s="0"/>
+      <c r="G118" s="0"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="0"/>
+      <c r="E119" s="0"/>
+      <c r="F119" s="0"/>
+      <c r="G119" s="0"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D120" s="0"/>
+      <c r="E120" s="0"/>
+      <c r="F120" s="0"/>
+      <c r="G120" s="0"/>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B121" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D122" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D123" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B124" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D126" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E127" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E128" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" s="16"/>
+    </row>
+    <row r="129" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" s="16"/>
+    </row>
+    <row r="130" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E130" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="135" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H135" s="16"/>
+    </row>
+    <row r="136" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H136" s="10"/>
+    </row>
+    <row r="137" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B142" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="0"/>
+    </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="126.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="2" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E109" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" s="11"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E113" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E115" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F116" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G117" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" s="0"/>
+      <c r="E119" s="0"/>
+      <c r="F119" s="0"/>
+      <c r="G119" s="0"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" s="0"/>
+      <c r="E120" s="0"/>
+      <c r="F120" s="0"/>
+      <c r="G120" s="0"/>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D121" s="0"/>
+      <c r="E121" s="0"/>
+      <c r="F121" s="0"/>
+      <c r="G121" s="0"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="F122" s="0"/>
+      <c r="G122" s="0"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0"/>
+      <c r="G123" s="0"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D126" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="16"/>
+    </row>
+    <row r="129" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="16"/>
+    </row>
+    <row r="130" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E130" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E133" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="135" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E135" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" s="16"/>
+    </row>
+    <row r="136" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E136" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E137" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" s="16"/>
+    </row>
+    <row r="138" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="16"/>
+    </row>
+    <row r="140" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H143" s="10"/>
+    </row>
+    <row r="144" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+    </row>
+    <row r="151" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="18"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="18"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="18"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="18"/>
+      <c r="B158" s="18"/>
+      <c r="C158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="18"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="18"/>
+      <c r="B160" s="18"/>
+      <c r="C160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="18"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="18"/>
+      <c r="B162" s="18"/>
+    </row>
+    <row r="163" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="18"/>
+      <c r="B163" s="18"/>
+    </row>
+    <row r="164" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="18"/>
+      <c r="B164" s="18"/>
+    </row>
+    <row r="165" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="18"/>
+      <c r="B165" s="18"/>
+    </row>
+    <row r="166" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="18"/>
+      <c r="B166" s="18"/>
+    </row>
+    <row r="167" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="18"/>
+      <c r="B167" s="18"/>
+    </row>
+    <row r="168" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="18"/>
+      <c r="B168" s="18"/>
+    </row>
+    <row r="169" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="18"/>
+      <c r="B169" s="18"/>
+    </row>
+    <row r="170" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="18"/>
+      <c r="B170" s="18"/>
+    </row>
+    <row r="171" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
+    </row>
+    <row r="172" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="18"/>
+      <c r="B172" s="18"/>
+    </row>
+    <row r="173" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="18"/>
+      <c r="B173" s="18"/>
+    </row>
+    <row r="174" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="18"/>
+      <c r="B174" s="18"/>
+    </row>
+    <row r="175" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="18"/>
+      <c r="B175" s="18"/>
+    </row>
+    <row r="176" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="18"/>
+      <c r="B176" s="18"/>
+    </row>
+    <row r="177" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="18"/>
+      <c r="B177" s="18"/>
+    </row>
+    <row r="178" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="18"/>
+      <c r="B178" s="18"/>
+    </row>
+    <row r="179" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="18"/>
+      <c r="B179" s="18"/>
+    </row>
+    <row r="180" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="18"/>
+      <c r="B180" s="18"/>
+    </row>
+    <row r="181" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+    </row>
+    <row r="182" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="18"/>
+      <c r="B182" s="18"/>
+    </row>
+    <row r="183" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="18"/>
+      <c r="B183" s="18"/>
+    </row>
+    <row r="184" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="18"/>
+      <c r="B184" s="18"/>
+    </row>
+    <row r="185" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="18"/>
+      <c r="B185" s="18"/>
+    </row>
+    <row r="186" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="18"/>
+      <c r="B186" s="18"/>
+    </row>
+    <row r="187" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="18"/>
+      <c r="B187" s="18"/>
+    </row>
+    <row r="188" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="18"/>
+      <c r="B188" s="18"/>
+    </row>
+    <row r="189" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="18"/>
+      <c r="B189" s="18"/>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="55.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="87.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="55.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="87.08"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="22"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
